--- a/Algebra y Estadistica/clase 10-4-24/medidas de tendencia.xlsx
+++ b/Algebra y Estadistica/clase 10-4-24/medidas de tendencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emi\Documents\ITU DESARROLLO\Segundo Semestre\Algebra y Estadistica\clase 10-4-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desarrollo De Software 2023 Junin\Segundo Semestre\Algebra y Estadistica\clase 10-4-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ADCE42-5A0F-4E25-A26D-DF3917E4B00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875D490-F45C-48B3-ACAE-75EFD8AAD6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CC8F0B0-FA9F-42C7-9929-FF511263963B}"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="15375" windowHeight="7785" xr2:uid="{4CC8F0B0-FA9F-42C7-9929-FF511263963B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>desvio estandar</t>
   </si>
@@ -42,7 +42,13 @@
     <t>promedio</t>
   </si>
   <si>
-    <t>VAR</t>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>VARianza</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345E862-83D4-44AB-8E92-7A52E7F5E623}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ref="B8:D8" si="0">STDEV(B1:B7)</f>
+        <f t="shared" ref="B8:C8" si="0">STDEV(B1:B7)</f>
         <v>2.1602468994692869</v>
       </c>
       <c r="C8" s="1">
@@ -544,7 +550,41 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>MEDIAN(A1:A7)</f>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C11" si="3">MEDIAN(B1:B7)</f>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>MODE(A1:A7)</f>
+        <v>7</v>
+      </c>
+      <c r="B12" t="e">
+        <f t="shared" ref="B12:C12" si="4">MODE(B1:B7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
